--- a/XL1/redacted_TSA_1_4-April_Chinese-Mandarin_USAF__Alan _Student-Assessment_Chinese - Mandarin4-2024--TR-26469.xlsx
+++ b/XL1/redacted_TSA_1_4-April_Chinese-Mandarin_USAF__Alan _Student-Assessment_Chinese - Mandarin4-2024--TR-26469.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,106 +436,89 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>ILR</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Level</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>sDESCRIPTIONCAN DO</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>MOST  OF</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>THE</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>TIMECAN DO</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>SOME OF</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>THE</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>TIMECAN-</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>NOT</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>DON/A</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>3 comprehend conjecture X</t>
         </is>
